--- a/public/files/helio-studentList-template.xlsx
+++ b/public/files/helio-studentList-template.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIT\4\Semester_1\INT372\helio-score-be\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563F0A5-7AAD-4D64-8618-D799CABB9C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="xZtacNl8HzTphkL1t5n2VZeWbBs2YtvUqPAsgWeFsehj7H/mVgO0BgJCXUtmInL899xKThs3LKRVrTWjW49XOA==" workbookSaltValue="VUD3uISk+F7rs+0JiamS7g==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DE236E-831F-43D5-90B2-71910F88CD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EFC9EB46-8553-4930-9DB1-E115BCCF22EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2BD81270-4B82-47F2-8BD3-55BA310B0F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,21 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>เลขที่</t>
+  </si>
+  <si>
+    <t>รหัสนักเรียน</t>
   </si>
   <si>
     <t>ชื่อ</t>
   </si>
   <si>
     <t>นามสกุล</t>
-  </si>
-  <si>
-    <t>คำนำหน้า</t>
-  </si>
-  <si>
-    <t>รหัสนักเรียน</t>
   </si>
   <si>
     <t>อีเมล</t>
@@ -408,8 +404,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF936884-E830-48A7-908F-7C80FB01833E}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B45EFB-B808-4BE5-AB2E-1522A31BBEB0}">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -417,31 +413,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9" style="2"/>
+    <col min="1" max="26" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RxfGEwxfaoBO2QMehL1h5T3o0RayAERz7dZxMEUffmWz9InTy1+iEttS8bHhRe5zfM2tmSCru7FKpetZuda0bw==" saltValue="wXEOYe+HBDG1AqNOMBAA0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RczmOco+gooYaYaV7y3JqRyJlD6T8Stog+P39WfhWDdwIcovws6lox4nTWq7PLv+sTRaZC2hSiiaW0FR09YJ1g==" saltValue="syQVfiSewS47MJ3crCfVXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/public/files/helio-studentList-template.xlsx
+++ b/public/files/helio-studentList-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIT\4\Semester_1\INT372\helio-score-be\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DE236E-831F-43D5-90B2-71910F88CD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{500A52FD-313F-4C79-A943-CA61F382C43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2BD81270-4B82-47F2-8BD3-55BA310B0F1C}"/>
+    <workbookView xWindow="4785" yWindow="3555" windowWidth="21600" windowHeight="11835" xr2:uid="{527A7A44-8DD1-4662-A634-FEA376B7B9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>เลขที่</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>อีเมล</t>
+  </si>
+  <si>
+    <t>คำนำหน้า</t>
   </si>
 </sst>
 </file>
@@ -404,8 +407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B45EFB-B808-4BE5-AB2E-1522A31BBEB0}">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EA27AB-486B-4F67-B568-8D4F7B375520}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -413,10 +416,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="9" style="2"/>
+    <col min="1" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,18 +427,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RczmOco+gooYaYaV7y3JqRyJlD6T8Stog+P39WfhWDdwIcovws6lox4nTWq7PLv+sTRaZC2hSiiaW0FR09YJ1g==" saltValue="syQVfiSewS47MJ3crCfVXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DjO4oVTt1hcRZsKKcexdsO0YcqmfUn/vkwVW3RYIhyPFFGMrHurt1ScLQS7IN6P0LV515fqNbZHfjeDkldErBg==" saltValue="xj4wgALvjteal2EA+c6ovw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
